--- a/Monthly/ACF - PACF/First Difference/sony residuals - values.xlsx
+++ b/Monthly/ACF - PACF/First Difference/sony residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01057664841184357</v>
+        <v>-0.0383896410419733</v>
       </c>
       <c r="C3">
-        <v>0.01067642811384208</v>
+        <v>-0.03875180746689762</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02101543011869118</v>
+        <v>0.06657020840859919</v>
       </c>
       <c r="C4">
-        <v>0.02130416628764064</v>
+        <v>0.06643627732553023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1019100330948701</v>
+        <v>0.05020493489076789</v>
       </c>
       <c r="C5">
-        <v>0.104457832161743</v>
+        <v>0.05701879782347263</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.01164257328844291</v>
+        <v>-0.08070968358730864</v>
       </c>
       <c r="C6">
-        <v>-0.01467340781154747</v>
+        <v>-0.08499388474328282</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.06839020012251018</v>
+        <v>0.02086871844443416</v>
       </c>
       <c r="C7">
-        <v>-0.07675496769565243</v>
+        <v>0.008312442075565656</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02205627677355531</v>
+        <v>-0.004259332521036573</v>
       </c>
       <c r="C8">
-        <v>-0.03299231888509986</v>
+        <v>0.00586124232153836</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.06480358759909484</v>
+        <v>-0.1485684969331688</v>
       </c>
       <c r="C9">
-        <v>-0.06368882597456602</v>
+        <v>-0.1548260630302231</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02818660332370535</v>
+        <v>0.04819998065821517</v>
       </c>
       <c r="C10">
-        <v>0.0493403928175493</v>
+        <v>0.03407572753921537</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1894539917000821</v>
+        <v>-0.1008690839552565</v>
       </c>
       <c r="C11">
-        <v>-0.204826010273928</v>
+        <v>-0.08489718593649442</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1196934015798356</v>
+        <v>-0.1589312826187591</v>
       </c>
       <c r="C12">
-        <v>-0.12921762695231</v>
+        <v>-0.1823079835583075</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.009616117937351841</v>
+        <v>-0.04813175903922969</v>
       </c>
       <c r="C13">
-        <v>-0.0176302911027566</v>
+        <v>-0.08699760387512824</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1377098367066253</v>
+        <v>-0.09810452334808949</v>
       </c>
       <c r="C14">
-        <v>-0.1276973187398076</v>
+        <v>-0.08125190087004225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.07332762319641985</v>
+        <v>-0.006198797084377692</v>
       </c>
       <c r="C15">
-        <v>-0.06931266170627831</v>
+        <v>-0.01869146949289943</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08975035034800788</v>
+        <v>0.02634341054623576</v>
       </c>
       <c r="C16">
-        <v>0.07343037366994935</v>
+        <v>-0.005800479720181701</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.04486514319202898</v>
+        <v>0.04051444161281636</v>
       </c>
       <c r="C17">
-        <v>0.06105114784913049</v>
+        <v>0.06512213256842818</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1384548314529423</v>
+        <v>-0.1025479917155481</v>
       </c>
       <c r="C18">
-        <v>-0.2123816717216984</v>
+        <v>-0.1797000668753098</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06306429023179505</v>
+        <v>0.09293502741425058</v>
       </c>
       <c r="C19">
-        <v>0.0336680982233103</v>
+        <v>0.0478863934252225</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.02645180161226876</v>
+        <v>-0.1062727870541833</v>
       </c>
       <c r="C20">
-        <v>-0.09070913495209144</v>
+        <v>-0.1394246276965204</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.001015383495708777</v>
+        <v>0.03008077967771259</v>
       </c>
       <c r="C21">
-        <v>-0.03791151008464714</v>
+        <v>-0.03236040602640204</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.04248002387745865</v>
+        <v>0.09591298324462355</v>
       </c>
       <c r="C22">
-        <v>0.0321920684705866</v>
+        <v>0.06969205686891834</v>
       </c>
     </row>
   </sheetData>
